--- a/Data_preparation/datasets/final_data/TENCENT_MUSI_ADR.xlsx
+++ b/Data_preparation/datasets/final_data/TENCENT_MUSI_ADR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,90 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -736,22 +652,22 @@
         <v>42370</v>
       </c>
       <c r="D2">
-        <v>6.107999801635742</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E2">
-        <v>5.627999782562256</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F2">
-        <v>6.197999954223633</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G2">
-        <v>4.728000164031982</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H2">
-        <v>766266033</v>
+        <v>708442998</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -774,22 +690,22 @@
         <v>42735</v>
       </c>
       <c r="D3">
-        <v>45.97999954223633</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E3">
-        <v>53.06000137329102</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F3">
-        <v>53.20000076293945</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G3">
-        <v>45.61000061035156</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H3">
-        <v>50476952</v>
+        <v>708442998</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-482898550.7246376</v>
@@ -815,22 +731,22 @@
         <v>43100</v>
       </c>
       <c r="D4">
-        <v>8.751999855041504</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E4">
-        <v>9.208000183105469</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F4">
-        <v>9.28600025177002</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G4">
-        <v>8.696000099182129</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H4">
-        <v>766266033</v>
+        <v>708442998</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-782043530.834341</v>
@@ -895,22 +811,22 @@
         <v>43190</v>
       </c>
       <c r="D5">
-        <v>35.97240561616163</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E5">
-        <v>31.91368293762207</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F5">
-        <v>36.75260893317965</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G5">
-        <v>31.53188151649943</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H5">
-        <v>5186523104</v>
+        <v>708442998</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>4116000000</v>
@@ -966,22 +882,22 @@
         <v>43281</v>
       </c>
       <c r="D6">
-        <v>22.36372947692871</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E6">
-        <v>22.87315368652344</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F6">
-        <v>25.01273536682129</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G6">
-        <v>22.00713157653809</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H6">
-        <v>60308678</v>
+        <v>708442998</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P6">
         <v>4503000000</v>
@@ -1037,22 +953,22 @@
         <v>43373</v>
       </c>
       <c r="D7">
-        <v>40.01662959399956</v>
+        <v>13.79884986122726</v>
       </c>
       <c r="E7">
-        <v>40.09360122680664</v>
+        <v>12.93764495849609</v>
       </c>
       <c r="F7">
-        <v>42.52247987457982</v>
+        <v>14.43496666287938</v>
       </c>
       <c r="G7">
-        <v>36.22792094161961</v>
+        <v>11.55776015903448</v>
       </c>
       <c r="H7">
-        <v>4757218036</v>
+        <v>708442998</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P7">
         <v>4969000000</v>
@@ -1108,22 +1024,22 @@
         <v>43465</v>
       </c>
       <c r="D8">
-        <v>42.82212632249508</v>
+        <v>12.50704165715845</v>
       </c>
       <c r="E8">
-        <v>46.75239944458008</v>
+        <v>14.63069438934326</v>
       </c>
       <c r="F8">
-        <v>46.95784665825049</v>
+        <v>15.8637823198816</v>
       </c>
       <c r="G8">
-        <v>41.83955640128374</v>
+        <v>11.80242024922384</v>
       </c>
       <c r="H8">
-        <v>450687724</v>
+        <v>708442998</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>25786766254</v>
@@ -1209,22 +1125,22 @@
         <v>43555</v>
       </c>
       <c r="D9">
-        <v>83.62000274658203</v>
+        <v>18.34953373644923</v>
       </c>
       <c r="E9">
-        <v>104.0299987792969</v>
+        <v>16.83263969421387</v>
       </c>
       <c r="F9">
-        <v>104.9800033569336</v>
+        <v>19.00522381662946</v>
       </c>
       <c r="G9">
-        <v>82.03099822998047</v>
+        <v>16.42161006385296</v>
       </c>
       <c r="H9">
-        <v>168459019</v>
+        <v>708442998</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>35075596280</v>
@@ -1331,22 +1247,22 @@
         <v>43646</v>
       </c>
       <c r="D10">
-        <v>14.72999954223633</v>
+        <v>15.0808705973974</v>
       </c>
       <c r="E10">
-        <v>16.79999923706055</v>
+        <v>13.96521949768066</v>
       </c>
       <c r="F10">
-        <v>18.36000061035156</v>
+        <v>16.38246416927066</v>
       </c>
       <c r="G10">
-        <v>13.96000003814697</v>
+        <v>13.62269448053272</v>
       </c>
       <c r="H10">
-        <v>1435682333</v>
+        <v>708442998</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>29048794930</v>
@@ -1453,22 +1369,22 @@
         <v>43738</v>
       </c>
       <c r="D11">
-        <v>42.51583583355016</v>
+        <v>12.48746997446418</v>
       </c>
       <c r="E11">
-        <v>42.25590896606445</v>
+        <v>13.54440307617188</v>
       </c>
       <c r="F11">
-        <v>43.8557984628152</v>
+        <v>14.18051989233288</v>
       </c>
       <c r="G11">
-        <v>39.92553545962458</v>
+        <v>12.29174179513046</v>
       </c>
       <c r="H11">
-        <v>539679667</v>
+        <v>708442998</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>24746705221</v>
@@ -1575,22 +1491,22 @@
         <v>43830</v>
       </c>
       <c r="D12">
-        <v>74.30999755859375</v>
+        <v>11.77306092887055</v>
       </c>
       <c r="E12">
-        <v>78.51000213623047</v>
+        <v>12.41896438598633</v>
       </c>
       <c r="F12">
-        <v>80.26000213623047</v>
+        <v>13.90650041245165</v>
       </c>
       <c r="G12">
-        <v>70.55000305175781</v>
+        <v>11.64583737924084</v>
       </c>
       <c r="H12">
-        <v>201104117</v>
+        <v>708442998</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>22750690626</v>
@@ -1685,22 +1601,22 @@
         <v>43921</v>
       </c>
       <c r="D13">
-        <v>26.5</v>
+        <v>9.620048726547701</v>
       </c>
       <c r="E13">
-        <v>30.27000045776367</v>
+        <v>11.16630268096924</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>11.29841954668827</v>
       </c>
       <c r="G13">
-        <v>21.67000007629395</v>
+        <v>9.531970816068348</v>
       </c>
       <c r="H13">
-        <v>2085418676</v>
+        <v>708442998</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>23543016973</v>
@@ -1807,22 +1723,22 @@
         <v>44012</v>
       </c>
       <c r="D14">
-        <v>256.4700012207031</v>
+        <v>13.33888826360324</v>
       </c>
       <c r="E14">
-        <v>280.75</v>
+        <v>15.79527854919434</v>
       </c>
       <c r="F14">
-        <v>287.8299865722656</v>
+        <v>17.58619302459886</v>
       </c>
       <c r="G14">
-        <v>250.9499969482422</v>
+        <v>13.03550888545076</v>
       </c>
       <c r="H14">
-        <v>50845151</v>
+        <v>708442998</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>31499901437</v>
@@ -1920,22 +1836,22 @@
         <v>44104</v>
       </c>
       <c r="D15">
-        <v>142.1999969482422</v>
+        <v>14.60133569040702</v>
       </c>
       <c r="E15">
-        <v>135.75</v>
+        <v>14.56219005584717</v>
       </c>
       <c r="F15">
-        <v>158.7359924316406</v>
+        <v>14.81663714713896</v>
       </c>
       <c r="G15">
-        <v>133.8099975585938</v>
+        <v>13.55418926595188</v>
       </c>
       <c r="H15">
-        <v>158300823</v>
+        <v>708442998</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>34565642216</v>
@@ -2042,22 +1958,22 @@
         <v>44196</v>
       </c>
       <c r="D16">
-        <v>29.91399955749512</v>
+        <v>18.88778566128825</v>
       </c>
       <c r="E16">
-        <v>28.95000076293945</v>
+        <v>26.0318717956543</v>
       </c>
       <c r="F16">
-        <v>31.0620002746582</v>
+        <v>28.22402916512052</v>
       </c>
       <c r="G16">
-        <v>27.46199989318848</v>
+        <v>18.49632932149269</v>
       </c>
       <c r="H16">
-        <v>766266033</v>
+        <v>708442998</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>45026605026</v>
@@ -2164,22 +2080,22 @@
         <v>44286</v>
       </c>
       <c r="D17">
-        <v>529.9299926757812</v>
+        <v>20.7080592088494</v>
       </c>
       <c r="E17">
-        <v>513.469970703125</v>
+        <v>17.04793930053711</v>
       </c>
       <c r="F17">
-        <v>563.5599975585938</v>
+        <v>20.92335972112271</v>
       </c>
       <c r="G17">
-        <v>499</v>
+        <v>16.46564813328663</v>
       </c>
       <c r="H17">
-        <v>424926346</v>
+        <v>708442998</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>51789994313</v>
@@ -2286,22 +2202,22 @@
         <v>44377</v>
       </c>
       <c r="D18">
-        <v>46.47724219552952</v>
+        <v>15.16894859794533</v>
       </c>
       <c r="E18">
-        <v>48.50979995727539</v>
+        <v>10.3442440032959</v>
       </c>
       <c r="F18">
-        <v>48.75511095753174</v>
+        <v>15.28638550735211</v>
       </c>
       <c r="G18">
-        <v>45.85521015250949</v>
+        <v>9.306884170216575</v>
       </c>
       <c r="H18">
-        <v>3953196953</v>
+        <v>708442998</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>39126847827</v>
@@ -2408,22 +2324,22 @@
         <v>44469</v>
       </c>
       <c r="D19">
-        <v>138.916410444292</v>
+        <v>7.065793304166912</v>
       </c>
       <c r="E19">
-        <v>146.6503143310547</v>
+        <v>7.692124366760254</v>
       </c>
       <c r="F19">
-        <v>149.9494520691154</v>
+        <v>8.905640392213693</v>
       </c>
       <c r="G19">
-        <v>135.3627448332334</v>
+        <v>6.684123148305763</v>
       </c>
       <c r="H19">
-        <v>14840390000</v>
+        <v>708442998</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>18324912580</v>
@@ -2530,22 +2446,22 @@
         <v>44561</v>
       </c>
       <c r="D20">
-        <v>17.05999946594238</v>
+        <v>6.772201220632248</v>
       </c>
       <c r="E20">
-        <v>15.57999992370606</v>
+        <v>6.048006057739258</v>
       </c>
       <c r="F20">
-        <v>19.65999984741211</v>
+        <v>7.496395916872471</v>
       </c>
       <c r="G20">
-        <v>13.14000034332275</v>
+        <v>5.245520093435526</v>
       </c>
       <c r="H20">
-        <v>250599325</v>
+        <v>708442998</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>17313882921</v>
@@ -2652,22 +2568,22 @@
         <v>44651</v>
       </c>
       <c r="D21">
-        <v>151.2200012207031</v>
+        <v>5.088937415662525</v>
       </c>
       <c r="E21">
-        <v>119.3099975585938</v>
+        <v>4.159227848052979</v>
       </c>
       <c r="F21">
-        <v>161.6100006103516</v>
+        <v>5.426569114065334</v>
       </c>
       <c r="G21">
-        <v>118.879997253418</v>
+        <v>3.728625379550335</v>
       </c>
       <c r="H21">
-        <v>168459019</v>
+        <v>708442998</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>12333687367</v>
@@ -2774,22 +2690,22 @@
         <v>44742</v>
       </c>
       <c r="D22">
-        <v>3.200000047683716</v>
+        <v>4.863849406350651</v>
       </c>
       <c r="E22">
-        <v>3.930000066757202</v>
+        <v>4.120081901550293</v>
       </c>
       <c r="F22">
-        <v>4.539999961853027</v>
+        <v>5.274879025663927</v>
       </c>
       <c r="G22">
-        <v>3.109999895095825</v>
+        <v>3.983072183996789</v>
       </c>
       <c r="H22">
-        <v>448228270</v>
+        <v>708442998</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>12323904433</v>
@@ -2896,22 +2812,22 @@
         <v>44834</v>
       </c>
       <c r="D23">
-        <v>254.5</v>
+        <v>3.934139974783652</v>
       </c>
       <c r="E23">
-        <v>227.5399932861328</v>
+        <v>3.532896757125854</v>
       </c>
       <c r="F23">
-        <v>257.5</v>
+        <v>4.50175213798012</v>
       </c>
       <c r="G23">
-        <v>198.5899963378907</v>
+        <v>3.072935321427852</v>
       </c>
       <c r="H23">
-        <v>3325150886</v>
+        <v>708442998</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>9824092670</v>
@@ -3018,22 +2934,22 @@
         <v>44926</v>
       </c>
       <c r="D24">
-        <v>26.71999931335449</v>
+        <v>8.269522923912934</v>
       </c>
       <c r="E24">
-        <v>28.72999954223633</v>
+        <v>8.21080493927002</v>
       </c>
       <c r="F24">
-        <v>29.72999954223633</v>
+        <v>9.091582175358058</v>
       </c>
       <c r="G24">
-        <v>26.64999961853028</v>
+        <v>7.613833317784739</v>
       </c>
       <c r="H24">
-        <v>178998669</v>
+        <v>708442998</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>19723644566</v>
@@ -3140,22 +3056,22 @@
         <v>45016</v>
       </c>
       <c r="D25">
-        <v>261.1884929516806</v>
+        <v>8.06400831763397</v>
       </c>
       <c r="E25">
-        <v>225.4617156982422</v>
+        <v>7.251735687255859</v>
       </c>
       <c r="F25">
-        <v>262.5264343168398</v>
+        <v>8.073794959760349</v>
       </c>
       <c r="G25">
-        <v>223.9783523558658</v>
+        <v>6.742841963003743</v>
       </c>
       <c r="H25">
-        <v>60498713</v>
+        <v>708442998</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>19517865464</v>
@@ -3262,22 +3178,22 @@
         <v>45107</v>
       </c>
       <c r="D26">
-        <v>18.42000007629395</v>
+        <v>7.418105192701361</v>
       </c>
       <c r="E26">
-        <v>19.04000091552734</v>
+        <v>6.840706348419189</v>
       </c>
       <c r="F26">
-        <v>19.38999938964844</v>
+        <v>7.77041639147123</v>
       </c>
       <c r="G26">
-        <v>17.57999992370605</v>
+        <v>6.175230054434152</v>
       </c>
       <c r="H26">
-        <v>260676335</v>
+        <v>708442998</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>17396358348</v>
@@ -3384,22 +3300,22 @@
         <v>45199</v>
       </c>
       <c r="D27">
-        <v>62.6169871617784</v>
+        <v>6.194802733472838</v>
       </c>
       <c r="E27">
-        <v>64.67326354980469</v>
+        <v>7.104939937591553</v>
       </c>
       <c r="F27">
-        <v>66.63478202323152</v>
+        <v>7.212590203322728</v>
       </c>
       <c r="G27">
-        <v>60.75970456328059</v>
+        <v>5.959928917347229</v>
       </c>
       <c r="H27">
-        <v>212968277</v>
+        <v>708442998</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>15039128220</v>
@@ -3506,22 +3422,22 @@
         <v>45291</v>
       </c>
       <c r="D28">
-        <v>1152.400024414062</v>
+        <v>8.636513280336795</v>
       </c>
       <c r="E28">
-        <v>1198.829956054688</v>
+        <v>9.19923210144043</v>
       </c>
       <c r="F28">
-        <v>1307.140014648438</v>
+        <v>9.37538791557237</v>
       </c>
       <c r="G28">
-        <v>1113.18994140625</v>
+        <v>8.015075543420679</v>
       </c>
       <c r="H28">
-        <v>24003656</v>
+        <v>708442998</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>21238643458</v>
@@ -3628,22 +3544,22 @@
         <v>45382</v>
       </c>
       <c r="D29">
-        <v>104.6600036621094</v>
+        <v>11.0195068818178</v>
       </c>
       <c r="E29">
-        <v>92.98000335693359</v>
+        <v>12.28195476531982</v>
       </c>
       <c r="F29">
-        <v>105.0100021362305</v>
+        <v>12.65383876097309</v>
       </c>
       <c r="G29">
-        <v>90.66999816894533</v>
+        <v>10.70634087145921</v>
       </c>
       <c r="H29">
-        <v>168459019</v>
+        <v>708442998</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>29090415099</v>
@@ -3750,22 +3666,22 @@
         <v>45473</v>
       </c>
       <c r="D30">
-        <v>53.97000122070312</v>
+        <v>13.99373191921562</v>
       </c>
       <c r="E30">
-        <v>52.63999938964844</v>
+        <v>14.00360774993896</v>
       </c>
       <c r="F30">
-        <v>65.87999725341797</v>
+        <v>15.3368138178252</v>
       </c>
       <c r="G30">
-        <v>50.29000091552734</v>
+        <v>13.63821048947484</v>
       </c>
       <c r="H30">
-        <v>42689006</v>
+        <v>708442998</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>36525498851</v>
@@ -3872,22 +3788,22 @@
         <v>45657</v>
       </c>
       <c r="D31">
-        <v>12.96000003814697</v>
+        <v>11.1199307861233</v>
       </c>
       <c r="E31">
-        <v>14.22000026702881</v>
+        <v>11.8309736251831</v>
       </c>
       <c r="F31">
-        <v>15.34500026702881</v>
+        <v>12.25562491597987</v>
       </c>
       <c r="G31">
-        <v>12.61999988555908</v>
+        <v>10.13237034561809</v>
       </c>
       <c r="H31">
-        <v>453568899</v>
+        <v>708442998</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>29506363840</v>
@@ -3994,22 +3910,22 @@
         <v>45747</v>
       </c>
       <c r="D32">
-        <v>187.8600006103516</v>
+        <v>14.26037246230983</v>
       </c>
       <c r="E32">
-        <v>184.4199981689453</v>
+        <v>13.25306129455566</v>
       </c>
       <c r="F32">
-        <v>198.3399963378907</v>
+        <v>14.3936933488954</v>
       </c>
       <c r="G32">
-        <v>161.3800048828125</v>
+        <v>11.5643328899048</v>
       </c>
       <c r="H32">
-        <v>10664912097</v>
+        <v>708442998</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>32643468445</v>
@@ -4107,22 +4023,22 @@
         <v>45838</v>
       </c>
       <c r="D33">
-        <v>105.0804770925983</v>
+        <v>19.42000007629395</v>
       </c>
       <c r="E33">
-        <v>103.1780242919922</v>
+        <v>20.98999977111816</v>
       </c>
       <c r="F33">
-        <v>109.3114367486601</v>
+        <v>22.5</v>
       </c>
       <c r="G33">
-        <v>101.4440230697358</v>
+        <v>18.82200050354004</v>
       </c>
       <c r="H33">
-        <v>199618386</v>
+        <v>708442998</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>44151367105</v>
